--- a/28_02327Effort_2024.xlsx
+++ b/28_02327Effort_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a1547bcfe88a59d/Desktop/DTU/DITØ Semester 1/Databaser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccteg\OneDrive\Dokumenter\GitHub\BusDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{DC54BBF9-C2E1-45A1-B739-41A1ADF7D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DDF7828-DB05-4A87-A548-4E44EE4B9F3A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA420907-CA95-4987-B118-520C3F8337FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{484C5BAA-5B53-4A00-9D79-0975B7A9B251}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{484C5BAA-5B53-4A00-9D79-0975B7A9B251}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">member </t>
   </si>
   <si>
-    <t>Carl Christian</t>
-  </si>
-  <si>
     <t>Akkash</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Carl Christian Tegner</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="60 % - Farve6" xfId="1" builtinId="52"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,22 +570,22 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -593,33 +593,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>0.2</v>
@@ -637,15 +637,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>0.2</v>
@@ -663,15 +663,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>0.2</v>
@@ -689,15 +689,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>0.2</v>
@@ -715,16 +715,16 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="1">
         <v>0.2</v>
       </c>
@@ -741,9 +741,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="2">

--- a/28_02327Effort_2024.xlsx
+++ b/28_02327Effort_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccteg\OneDrive\Dokumenter\GitHub\BusDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA420907-CA95-4987-B118-520C3F8337FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5035BB8C-D0E6-4084-9C07-26C978CB32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{484C5BAA-5B53-4A00-9D79-0975B7A9B251}"/>
   </bookViews>
@@ -92,7 +92,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Carl Christian Tegner</t>
+    <t>Carl Christian</t>
   </si>
 </sst>
 </file>
@@ -224,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -232,6 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
@@ -567,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3C8913-D671-47AA-B6D8-57EE78C5548E}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +586,7 @@
     <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -611,7 +612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -622,22 +623,23 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E2" s="1">
-        <v>0.2</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="F2" s="1">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G2" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="1">
-        <v>0.2</v>
-      </c>
+        <v>0.35</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -648,22 +650,23 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F3" s="1">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G3" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="1">
-        <v>0.2</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -677,19 +680,20 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="1">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="G4" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="H4" s="1">
-        <v>0.2</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -700,22 +704,23 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="1">
         <v>0.2</v>
       </c>
       <c r="G5" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>0.2</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -726,22 +731,23 @@
         <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E6" s="1">
         <v>0.2</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="G6" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="H6" s="1">
-        <v>0.2</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -752,11 +758,11 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:H7" si="0">SUM(E2:E6)</f>
-        <v>1</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
@@ -764,7 +770,7 @@
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
